--- a/input_variables_list/Envisage_input_variables_list_v00.xlsx
+++ b/input_variables_list/Envisage_input_variables_list_v00.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Dropbox\Valentino\Projects\WB_plots\Rcode_Valentino\input_variables_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desil\Documents\GitHub\gams_plots\input_variables_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="7360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="7360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>variable_name</t>
   </si>
@@ -1148,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1280,9 +1280,7 @@
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>1</v>
@@ -1444,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
